--- a/src/MyBudget/ConsolidaExcel/Template.xlsx
+++ b/src/MyBudget/ConsolidaExcel/Template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valerio\Documents\GitHubVisualStudio\MyBudget\src\MyBudget\ConsolidaExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valerio\Source\Repos\MyBudget\src\MyBudget\ConsolidaExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:80001_{D07EE5C9-B20A-49F2-99C0-91A5CE352EBD}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dati" sheetId="2" r:id="rId1"/>
@@ -17,13 +18,13 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId3"/>
+    <pivotCache cacheId="82" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Data</t>
   </si>
@@ -51,11 +52,14 @@
   <si>
     <t>Sum of Spesa</t>
   </si>
+  <si>
+    <t>Tag</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -110,7 +114,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Valerio Borioni" refreshedDate="42744.870513425929" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1058">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Valerio Borioni" refreshedDate="43190.648072453703" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="1058" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:D1048576" sheet="Dati"/>
   </cacheSource>
@@ -165,7 +169,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="1058">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1058">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -6518,7 +6522,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable1" cacheId="82" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C3:E6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisCol" showAll="0">
@@ -6583,6 +6587,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -6872,16 +6879,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1058"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E1058"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:J2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6894,50 +6901,53 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -10072,7 +10082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C3:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
